--- a/runs/run090/NotionalETEOutput090.xlsx
+++ b/runs/run090/NotionalETEOutput090.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX3_State_Update</t>
+    <t>Missile_SOMERSAULT1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX3_438.MISSILE_ANGERMAX3_438</t>
+    <t>MISSILE_SOMERSAULT1_479.MISSILE_SOMERSAULT1_479</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX3</t>
+    <t>MISSILE_SOMERSAULT1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1504.882799255061</v>
+        <v>-1457.463608663325</v>
       </c>
       <c r="J2">
-        <v>2015.589616385995</v>
+        <v>2074.340379633517</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1487.661610972609</v>
+        <v>-1485.998603728946</v>
       </c>
       <c r="J3">
-        <v>2002.326195520925</v>
+        <v>2032.25224471788</v>
       </c>
       <c r="K3">
-        <v>310.9432815662023</v>
+        <v>298.319431986295</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1500.720228802541</v>
+        <v>-1475.639222935699</v>
       </c>
       <c r="J4">
-        <v>1959.650178775638</v>
+        <v>1845.293513400634</v>
       </c>
       <c r="K4">
-        <v>585.9671463115734</v>
+        <v>580.0146694821135</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1437.316919554428</v>
+        <v>-1444.690352892515</v>
       </c>
       <c r="J5">
-        <v>1930.342329754818</v>
+        <v>1810.214650302265</v>
       </c>
       <c r="K5">
-        <v>849.7447632964361</v>
+        <v>830.7099353843419</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1431.875180771505</v>
+        <v>-1409.587522231076</v>
       </c>
       <c r="J6">
-        <v>1883.10685786343</v>
+        <v>1798.724758265938</v>
       </c>
       <c r="K6">
-        <v>1090.084019487828</v>
+        <v>1162.180813754701</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1350.258465362281</v>
+        <v>-1344.860070041313</v>
       </c>
       <c r="J7">
-        <v>1815.956509692323</v>
+        <v>1842.596727935132</v>
       </c>
       <c r="K7">
-        <v>1404.69063835165</v>
+        <v>1413.46007987395</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1330.871672235427</v>
+        <v>-1328.922659122921</v>
       </c>
       <c r="J8">
-        <v>1676.094425467509</v>
+        <v>1660.231290588571</v>
       </c>
       <c r="K8">
-        <v>1537.363172136925</v>
+        <v>1531.496455595274</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-95.22609782684177</v>
+        <v>-98.30297200701199</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1285.126658734406</v>
+        <v>-1335.462556620617</v>
       </c>
       <c r="J9">
-        <v>1596.053655668271</v>
+        <v>1591.164846759016</v>
       </c>
       <c r="K9">
-        <v>1718.175232388276</v>
+        <v>1843.445288039802</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>212.5705729992691</v>
+        <v>209.3175680602112</v>
       </c>
       <c r="G10">
-        <v>-80.95130482013123</v>
+        <v>-82.45227885589718</v>
       </c>
       <c r="H10">
-        <v>822.689278902939</v>
+        <v>836.0613400832184</v>
       </c>
       <c r="I10">
-        <v>-1225.751110532551</v>
+        <v>-1282.263158487433</v>
       </c>
       <c r="J10">
-        <v>1582.520398129858</v>
+        <v>1549.22131410829</v>
       </c>
       <c r="K10">
-        <v>2086.339235048586</v>
+        <v>2096.76192787561</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>164.130400482657</v>
+        <v>161.4674659850249</v>
       </c>
       <c r="G11">
-        <v>-65.65179149010237</v>
+        <v>-68.91951604843246</v>
       </c>
       <c r="H11">
-        <v>1063.81985171672</v>
+        <v>1085.87108572276</v>
       </c>
       <c r="I11">
-        <v>-1216.243755279533</v>
+        <v>-1234.911227216937</v>
       </c>
       <c r="J11">
-        <v>1547.009920035202</v>
+        <v>1488.772460973396</v>
       </c>
       <c r="K11">
-        <v>2161.316050213224</v>
+        <v>2090.992021813646</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>133.4123467974688</v>
+        <v>137.1541350525011</v>
       </c>
       <c r="G12">
-        <v>-52.56050707114403</v>
+        <v>-48.6764294064439</v>
       </c>
       <c r="H12">
-        <v>1160.856276142537</v>
+        <v>1157.458465051678</v>
       </c>
       <c r="I12">
-        <v>-1176.024515614951</v>
+        <v>-1195.245530401788</v>
       </c>
       <c r="J12">
-        <v>1514.019249855153</v>
+        <v>1439.455827393046</v>
       </c>
       <c r="K12">
-        <v>2310.588338139954</v>
+        <v>2395.397575706385</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>120.2121387239593</v>
+        <v>118.0719231960726</v>
       </c>
       <c r="G13">
-        <v>-33.69722318981269</v>
+        <v>-32.80803422199065</v>
       </c>
       <c r="H13">
-        <v>1317.685864512124</v>
+        <v>1263.801243195805</v>
       </c>
       <c r="I13">
-        <v>-1163.215518250359</v>
+        <v>-1181.430277052127</v>
       </c>
       <c r="J13">
-        <v>1427.908703646781</v>
+        <v>1411.981797150994</v>
       </c>
       <c r="K13">
-        <v>2564.289075314166</v>
+        <v>2399.448377255636</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>112.7939030603758</v>
+        <v>104.4352630807253</v>
       </c>
       <c r="G14">
-        <v>-17.44752048678009</v>
+        <v>-17.78513216461332</v>
       </c>
       <c r="H14">
-        <v>1290.15635465816</v>
+        <v>1303.440117508349</v>
       </c>
       <c r="I14">
-        <v>-1044.955514054046</v>
+        <v>-1141.096150083871</v>
       </c>
       <c r="J14">
-        <v>1406.48799549395</v>
+        <v>1384.614122632923</v>
       </c>
       <c r="K14">
-        <v>2660.933699552581</v>
+        <v>2662.137885121785</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>99.53024846251643</v>
+        <v>99.62486464289766</v>
       </c>
       <c r="G15">
-        <v>-0.9013574474216933</v>
+        <v>-0.9386433536198193</v>
       </c>
       <c r="H15">
-        <v>1366.656843833611</v>
+        <v>1446.917593160771</v>
       </c>
       <c r="I15">
-        <v>-1011.866746816439</v>
+        <v>-1055.187043378076</v>
       </c>
       <c r="J15">
-        <v>1362.77835278949</v>
+        <v>1407.937469397009</v>
       </c>
       <c r="K15">
-        <v>2794.458906077537</v>
+        <v>2667.244134225284</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>90.0607219220263</v>
+        <v>94.45593174852449</v>
       </c>
       <c r="G16">
-        <v>15.9855462368972</v>
+        <v>15.40279679233417</v>
       </c>
       <c r="H16">
-        <v>1453.015109487807</v>
+        <v>1358.621653030673</v>
       </c>
       <c r="I16">
-        <v>-973.2008561740919</v>
+        <v>-1041.489811223306</v>
       </c>
       <c r="J16">
-        <v>1280.233177791848</v>
+        <v>1307.41017261453</v>
       </c>
       <c r="K16">
-        <v>2883.954421918445</v>
+        <v>2967.552405114098</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>89.87574091088234</v>
+        <v>83.20304942139589</v>
       </c>
       <c r="G17">
-        <v>32.3062823001665</v>
+        <v>31.73265340651837</v>
       </c>
       <c r="H17">
-        <v>1400.050689432966</v>
+        <v>1483.595035906093</v>
       </c>
       <c r="I17">
-        <v>-997.4849352476593</v>
+        <v>-1017.586182216607</v>
       </c>
       <c r="J17">
-        <v>1317.966361558686</v>
+        <v>1232.02486352658</v>
       </c>
       <c r="K17">
-        <v>2872.593834983233</v>
+        <v>2955.47437694066</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>84.30354950909705</v>
+        <v>83.82723478815983</v>
       </c>
       <c r="G18">
-        <v>47.51781593429391</v>
+        <v>49.95432634941051</v>
       </c>
       <c r="H18">
-        <v>1565.975613312618</v>
+        <v>1551.727871704064</v>
       </c>
       <c r="I18">
-        <v>-887.0429279065669</v>
+        <v>-926.9089928943063</v>
       </c>
       <c r="J18">
-        <v>1167.271633342713</v>
+        <v>1195.167475808125</v>
       </c>
       <c r="K18">
-        <v>2985.636806111101</v>
+        <v>3181.449104349268</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>76.64657985454298</v>
+        <v>79.74402464681384</v>
       </c>
       <c r="G19">
-        <v>64.32377454178825</v>
+        <v>64.51734581398745</v>
       </c>
       <c r="H19">
-        <v>1514.845517654043</v>
+        <v>1524.823849631529</v>
       </c>
       <c r="I19">
-        <v>-913.773509898905</v>
+        <v>-861.0371324497384</v>
       </c>
       <c r="J19">
-        <v>1186.705452410456</v>
+        <v>1183.386982256327</v>
       </c>
       <c r="K19">
-        <v>3086.617163469047</v>
+        <v>3102.743262491895</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>71.4718220689292</v>
+        <v>74.61672352832754</v>
       </c>
       <c r="G20">
-        <v>84.50630486095314</v>
+        <v>77.94161564535929</v>
       </c>
       <c r="H20">
-        <v>1511.207529330921</v>
+        <v>1592.88774649479</v>
       </c>
       <c r="I20">
-        <v>-877.085875193728</v>
+        <v>-827.183738029408</v>
       </c>
       <c r="J20">
-        <v>1076.974622218053</v>
+        <v>1105.787472229753</v>
       </c>
       <c r="K20">
-        <v>3220.019927018961</v>
+        <v>3087.984637173996</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.41830166278481</v>
+        <v>71.33789680608075</v>
       </c>
       <c r="G21">
-        <v>95.17985135671154</v>
+        <v>101.8665069566553</v>
       </c>
       <c r="H21">
-        <v>1578.432133904813</v>
+        <v>1555.218360679783</v>
       </c>
       <c r="I21">
-        <v>-761.7416209385049</v>
+        <v>-805.9317411933863</v>
       </c>
       <c r="J21">
-        <v>1070.780212797623</v>
+        <v>1039.200976409331</v>
       </c>
       <c r="K21">
-        <v>3185.99450134407</v>
+        <v>3198.783120573901</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.03336662130155</v>
+        <v>65.77925200996476</v>
       </c>
       <c r="G22">
-        <v>113.6946479961476</v>
+        <v>116.6680344093345</v>
       </c>
       <c r="H22">
-        <v>1605.830939342886</v>
+        <v>1534.808795535509</v>
       </c>
       <c r="I22">
-        <v>-780.9422369114781</v>
+        <v>-748.3554525031492</v>
       </c>
       <c r="J22">
-        <v>1042.712765391374</v>
+        <v>1063.265480351705</v>
       </c>
       <c r="K22">
-        <v>3214.658050753726</v>
+        <v>3083.254184249742</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.56640630987273</v>
+        <v>67.2093780536017</v>
       </c>
       <c r="G23">
-        <v>126.9411897504089</v>
+        <v>125.9954723469652</v>
       </c>
       <c r="H23">
-        <v>1709.301102095957</v>
+        <v>1623.923681694432</v>
       </c>
       <c r="I23">
-        <v>-727.2487520461002</v>
+        <v>-695.1324064527212</v>
       </c>
       <c r="J23">
-        <v>963.5997201682972</v>
+        <v>962.8851781355492</v>
       </c>
       <c r="K23">
-        <v>3343.985390201165</v>
+        <v>3250.488532204842</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.94359796059504</v>
+        <v>64.52331869454079</v>
       </c>
       <c r="G24">
-        <v>142.3433309402969</v>
+        <v>147.8359279827246</v>
       </c>
       <c r="H24">
-        <v>1678.767925928408</v>
+        <v>1711.272198208489</v>
       </c>
       <c r="I24">
-        <v>-657.0473483575722</v>
+        <v>-645.5271763844636</v>
       </c>
       <c r="J24">
-        <v>938.9099797237503</v>
+        <v>886.3055309960106</v>
       </c>
       <c r="K24">
-        <v>3127.875944701414</v>
+        <v>3226.630379237386</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.6528542950746</v>
+        <v>61.24844866653009</v>
       </c>
       <c r="G25">
-        <v>166.2685259202832</v>
+        <v>169.3875783788393</v>
       </c>
       <c r="H25">
-        <v>1611.085070282498</v>
+        <v>1614.026526569434</v>
       </c>
       <c r="I25">
-        <v>-579.0229638396527</v>
+        <v>-617.3317382993507</v>
       </c>
       <c r="J25">
-        <v>859.4614410852762</v>
+        <v>839.2579861494313</v>
       </c>
       <c r="K25">
-        <v>3266.497158583435</v>
+        <v>3301.406483200411</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.72413898243926</v>
+        <v>59.39485854178478</v>
       </c>
       <c r="G26">
-        <v>175.8533362264143</v>
+        <v>189.3890613821651</v>
       </c>
       <c r="H26">
-        <v>1614.778175184179</v>
+        <v>1716.20641743194</v>
       </c>
       <c r="I26">
-        <v>-543.7765719007892</v>
+        <v>-540.8747116397425</v>
       </c>
       <c r="J26">
-        <v>828.5138354677545</v>
+        <v>866.4019775474993</v>
       </c>
       <c r="K26">
-        <v>3213.790451916193</v>
+        <v>3034.857185933573</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.87614071971981</v>
+        <v>60.4427192751974</v>
       </c>
       <c r="G27">
-        <v>203.9124476984777</v>
+        <v>188.9245430733566</v>
       </c>
       <c r="H27">
-        <v>1757.005987315413</v>
+        <v>1687.824562658671</v>
       </c>
       <c r="I27">
-        <v>-510.3270594170415</v>
+        <v>-468.9878704256978</v>
       </c>
       <c r="J27">
-        <v>753.5728805154919</v>
+        <v>820.1333683983607</v>
       </c>
       <c r="K27">
-        <v>3184.610713007665</v>
+        <v>3093.395182123938</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>59.07687997671423</v>
+        <v>55.61819671205556</v>
       </c>
       <c r="G28">
-        <v>214.8181661241947</v>
+        <v>219.4858421796669</v>
       </c>
       <c r="H28">
-        <v>1754.386453290059</v>
+        <v>1717.120200518511</v>
       </c>
       <c r="I28">
-        <v>-427.6165312669563</v>
+        <v>-445.9157067238748</v>
       </c>
       <c r="J28">
-        <v>750.1168458783542</v>
+        <v>706.3422207184204</v>
       </c>
       <c r="K28">
-        <v>2890.442540977486</v>
+        <v>3087.693488002196</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.54394476624444</v>
+        <v>55.714216894663</v>
       </c>
       <c r="G29">
-        <v>230.8018461813903</v>
+        <v>225.271407846278</v>
       </c>
       <c r="H29">
-        <v>1697.130354313347</v>
+        <v>1709.900787531599</v>
       </c>
       <c r="I29">
-        <v>-377.1012057915854</v>
+        <v>-389.423682617902</v>
       </c>
       <c r="J29">
-        <v>682.8229560586985</v>
+        <v>697.4815599539745</v>
       </c>
       <c r="K29">
-        <v>2828.600514454524</v>
+        <v>2826.241911854199</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.60968254887495</v>
+        <v>56.12704297770881</v>
       </c>
       <c r="G30">
-        <v>235.7060596640109</v>
+        <v>243.0870380813414</v>
       </c>
       <c r="H30">
-        <v>1762.297240499656</v>
+        <v>1695.880975213405</v>
       </c>
       <c r="I30">
-        <v>-339.2590718821745</v>
+        <v>-333.2916748835287</v>
       </c>
       <c r="J30">
-        <v>630.9781470077254</v>
+        <v>667.5973858984056</v>
       </c>
       <c r="K30">
-        <v>2781.450519188331</v>
+        <v>2693.676898721222</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.43563476811733</v>
+        <v>51.92626681607242</v>
       </c>
       <c r="G31">
-        <v>258.234803820679</v>
+        <v>274.1837195967158</v>
       </c>
       <c r="H31">
-        <v>1855.02082418747</v>
+        <v>1776.616335572701</v>
       </c>
       <c r="I31">
-        <v>-275.7811713691264</v>
+        <v>-270.1145669843438</v>
       </c>
       <c r="J31">
-        <v>592.3065234133101</v>
+        <v>571.0455823930292</v>
       </c>
       <c r="K31">
-        <v>2609.868917446219</v>
+        <v>2645.045296071009</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.66425381374535</v>
+        <v>53.37011283082149</v>
       </c>
       <c r="G32">
-        <v>293.5962139683652</v>
+        <v>287.0999983569691</v>
       </c>
       <c r="H32">
-        <v>1770.596719973173</v>
+        <v>1855.537335639247</v>
       </c>
       <c r="I32">
-        <v>-209.1087562339073</v>
+        <v>-212.7100341412694</v>
       </c>
       <c r="J32">
-        <v>521.0843899606061</v>
+        <v>544.7517218298636</v>
       </c>
       <c r="K32">
-        <v>2451.199911060635</v>
+        <v>2419.163067741601</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.20069270134904</v>
+        <v>49.04260058228019</v>
       </c>
       <c r="G33">
-        <v>287.5771367305892</v>
+        <v>282.9166940200255</v>
       </c>
       <c r="H33">
-        <v>1757.744805886427</v>
+        <v>1866.308576904595</v>
       </c>
       <c r="I33">
-        <v>-152.4785770750237</v>
+        <v>-144.3752828748563</v>
       </c>
       <c r="J33">
-        <v>487.9508461555045</v>
+        <v>483.9609043111872</v>
       </c>
       <c r="K33">
-        <v>2456.683194638483</v>
+        <v>2277.613106194486</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>51.08927846751703</v>
+        <v>47.10453086614545</v>
       </c>
       <c r="G34">
-        <v>308.6592612417681</v>
+        <v>320.2202902315983</v>
       </c>
       <c r="H34">
-        <v>1798.419527528668</v>
+        <v>1781.317896503633</v>
       </c>
       <c r="I34">
-        <v>-86.71616125455765</v>
+        <v>-80.70450649623317</v>
       </c>
       <c r="J34">
-        <v>464.810547619259</v>
+        <v>443.6001327273936</v>
       </c>
       <c r="K34">
-        <v>2201.861795040066</v>
+        <v>2236.71358306562</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.91418088230118</v>
+        <v>49.97240902555967</v>
       </c>
       <c r="G35">
-        <v>331.7059802413524</v>
+        <v>331.9893884836836</v>
       </c>
       <c r="H35">
-        <v>1899.542343374837</v>
+        <v>1785.298064487032</v>
       </c>
       <c r="I35">
-        <v>-19.3057143788719</v>
+        <v>-18.46573466751221</v>
       </c>
       <c r="J35">
-        <v>398.6316087263142</v>
+        <v>393.8617225091028</v>
       </c>
       <c r="K35">
-        <v>2126.7684651192</v>
+        <v>2095.917301254435</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.78016752447393</v>
+        <v>49.06184319943244</v>
       </c>
       <c r="G36">
-        <v>359.631743676178</v>
+        <v>329.3601411954634</v>
       </c>
       <c r="H36">
-        <v>1776.168481708644</v>
+        <v>1797.231218913028</v>
       </c>
       <c r="I36">
-        <v>48.13860362649308</v>
+        <v>45.11643033212886</v>
       </c>
       <c r="J36">
-        <v>344.1042780520216</v>
+        <v>330.3764054617014</v>
       </c>
       <c r="K36">
-        <v>1813.357196288218</v>
+        <v>1901.222654091714</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.53409270761433</v>
+        <v>45.77063133652981</v>
       </c>
       <c r="G37">
-        <v>346.7898113557646</v>
+        <v>352.3026709155282</v>
       </c>
       <c r="H37">
-        <v>1879.221741447224</v>
+        <v>1846.025035253221</v>
       </c>
       <c r="I37">
-        <v>113.2215341406094</v>
+        <v>118.4009666358678</v>
       </c>
       <c r="J37">
-        <v>283.8543198556574</v>
+        <v>289.8651461103675</v>
       </c>
       <c r="K37">
-        <v>1622.897349016428</v>
+        <v>1544.834906216489</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.04412902498492</v>
+        <v>45.25361767926909</v>
       </c>
       <c r="G38">
-        <v>396.0863945121503</v>
+        <v>366.3700595378102</v>
       </c>
       <c r="H38">
-        <v>1866.273360858603</v>
+        <v>1882.715174480743</v>
       </c>
       <c r="I38">
-        <v>186.8220843542933</v>
+        <v>182.5499687623262</v>
       </c>
       <c r="J38">
-        <v>250.434393206057</v>
+        <v>237.6869124488552</v>
       </c>
       <c r="K38">
-        <v>1411.162801456737</v>
+        <v>1354.215815682657</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.02310821812448</v>
+        <v>46.04664170679631</v>
       </c>
       <c r="G39">
-        <v>403.996850325683</v>
+        <v>410.4120652511139</v>
       </c>
       <c r="H39">
-        <v>1785.718030544044</v>
+        <v>1888.202244314853</v>
       </c>
       <c r="I39">
-        <v>245.920720967941</v>
+        <v>265.1211554340493</v>
       </c>
       <c r="J39">
-        <v>193.7212357769218</v>
+        <v>198.1021328771303</v>
       </c>
       <c r="K39">
-        <v>1161.600688886343</v>
+        <v>1206.487767210273</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.46664188678094</v>
+        <v>46.14751178744228</v>
       </c>
       <c r="G40">
-        <v>426.7367085499195</v>
+        <v>424.8470172727349</v>
       </c>
       <c r="H40">
-        <v>1934.104504125008</v>
+        <v>1839.880985884278</v>
       </c>
       <c r="I40">
-        <v>344.1907038832228</v>
+        <v>328.7829882371096</v>
       </c>
       <c r="J40">
-        <v>148.9771855850505</v>
+        <v>151.1959345692097</v>
       </c>
       <c r="K40">
-        <v>902.1843897350825</v>
+        <v>913.0407109898759</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.99263646543189</v>
+        <v>41.3834983174041</v>
       </c>
       <c r="G41">
-        <v>444.2245660798462</v>
+        <v>443.6731467319411</v>
       </c>
       <c r="H41">
-        <v>1950.423817939914</v>
+        <v>1867.836916617806</v>
       </c>
       <c r="I41">
-        <v>391.5921560923499</v>
+        <v>394.4163499027015</v>
       </c>
       <c r="J41">
-        <v>99.75150967649016</v>
+        <v>100.3699386217719</v>
       </c>
       <c r="K41">
-        <v>610.8472332196292</v>
+        <v>608.693743600187</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.79683154826608</v>
+        <v>42.63109945853061</v>
       </c>
       <c r="G42">
-        <v>428.3277005811664</v>
+        <v>464.5661331181847</v>
       </c>
       <c r="H42">
-        <v>1798.325532130444</v>
+        <v>1811.713850136113</v>
       </c>
       <c r="I42">
-        <v>501.0515547929203</v>
+        <v>461.493136557687</v>
       </c>
       <c r="J42">
-        <v>51.4877542285964</v>
+        <v>51.83612579283764</v>
       </c>
       <c r="K42">
-        <v>321.5061130541731</v>
+        <v>325.5259539293057</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.11937809005656</v>
+        <v>40.86800300635035</v>
       </c>
       <c r="G43">
-        <v>460.3894869879014</v>
+        <v>442.9127087414082</v>
       </c>
       <c r="H43">
-        <v>1857.802537297914</v>
+        <v>1919.274088136523</v>
       </c>
       <c r="I43">
-        <v>530.3157427480392</v>
+        <v>551.0731315346234</v>
       </c>
       <c r="J43">
-        <v>5.26932347880334</v>
+        <v>5.048600612788072</v>
       </c>
       <c r="K43">
-        <v>34.24974259181778</v>
+        <v>34.65039739196249</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.51135500170889</v>
+        <v>40.3185617589046</v>
       </c>
       <c r="G44">
-        <v>466.1460944032947</v>
+        <v>486.7072410924135</v>
       </c>
       <c r="H44">
-        <v>1971.170512247669</v>
+        <v>1916.022634964071</v>
       </c>
       <c r="I44">
-        <v>640.352008135247</v>
+        <v>662.7935647333982</v>
       </c>
       <c r="J44">
-        <v>-44.30600203467147</v>
+        <v>-44.72893466506567</v>
       </c>
       <c r="K44">
-        <v>-280.7217278381868</v>
+        <v>-273.3205791596812</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.34018950322289</v>
+        <v>41.89166933555083</v>
       </c>
       <c r="G45">
-        <v>472.139322286412</v>
+        <v>516.2774806750315</v>
       </c>
       <c r="H45">
-        <v>1867.064167861556</v>
+        <v>1936.231193179087</v>
       </c>
       <c r="I45">
-        <v>738.3026223411115</v>
+        <v>716.200488478676</v>
       </c>
       <c r="J45">
-        <v>-89.53873419836677</v>
+        <v>-87.85681719101223</v>
       </c>
       <c r="K45">
-        <v>-587.7490716995162</v>
+        <v>-615.2282090087425</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>42.27689921485343</v>
+        <v>38.9474888239499</v>
       </c>
       <c r="G46">
-        <v>486.4157979387921</v>
+        <v>531.9116069478021</v>
       </c>
       <c r="H46">
-        <v>1931.565181823455</v>
+        <v>1996.558578998796</v>
       </c>
       <c r="I46">
-        <v>827.704597414152</v>
+        <v>844.2259481143624</v>
       </c>
       <c r="J46">
-        <v>-143.8777940215259</v>
+        <v>-142.4763224340755</v>
       </c>
       <c r="K46">
-        <v>-1005.515518748865</v>
+        <v>-985.6506606011836</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.57239174947465</v>
+        <v>39.81460832090404</v>
       </c>
       <c r="G47">
-        <v>503.2589501864039</v>
+        <v>545.9089619500591</v>
       </c>
       <c r="H47">
-        <v>1913.237344583979</v>
+        <v>1966.724751647278</v>
       </c>
       <c r="I47">
-        <v>910.6550418739622</v>
+        <v>922.544292011788</v>
       </c>
       <c r="J47">
-        <v>-197.7731286256614</v>
+        <v>-193.7395097145475</v>
       </c>
       <c r="K47">
-        <v>-1357.653956140031</v>
+        <v>-1267.497594989614</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.43928531287679</v>
+        <v>38.48631850201145</v>
       </c>
       <c r="G48">
-        <v>518.5801342101607</v>
+        <v>540.3698913077468</v>
       </c>
       <c r="H48">
-        <v>1984.225849742757</v>
+        <v>1947.93537009098</v>
       </c>
       <c r="I48">
-        <v>944.2057184591093</v>
+        <v>992.9290740168369</v>
       </c>
       <c r="J48">
-        <v>-243.4100856329095</v>
+        <v>-237.7996774392402</v>
       </c>
       <c r="K48">
-        <v>-1742.888537281082</v>
+        <v>-1730.800065444773</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.26385419660409</v>
+        <v>38.04273436228922</v>
       </c>
       <c r="G49">
-        <v>539.6702450190993</v>
+        <v>549.8302065139999</v>
       </c>
       <c r="H49">
-        <v>1983.703616160896</v>
+        <v>1998.789392986301</v>
       </c>
       <c r="I49">
-        <v>1096.108427786497</v>
+        <v>1059.356902712284</v>
       </c>
       <c r="J49">
-        <v>-273.4648583425247</v>
+        <v>-288.3394269926057</v>
       </c>
       <c r="K49">
-        <v>-2178.242626167079</v>
+        <v>-2182.474287875533</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>36.89593796050551</v>
+        <v>39.32061761433145</v>
       </c>
       <c r="G50">
-        <v>594.4325527407938</v>
+        <v>567.3697511342016</v>
       </c>
       <c r="H50">
-        <v>1871.840805213649</v>
+        <v>1865.00240802888</v>
       </c>
       <c r="I50">
-        <v>1126.147141144586</v>
+        <v>1221.044394720934</v>
       </c>
       <c r="J50">
-        <v>-337.9709265814494</v>
+        <v>-326.7091646289779</v>
       </c>
       <c r="K50">
-        <v>-2592.960566475368</v>
+        <v>-2593.412749424898</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.97476757237672</v>
+        <v>38.89779950744623</v>
       </c>
       <c r="G51">
-        <v>618.6935800216065</v>
+        <v>563.8709801632725</v>
       </c>
       <c r="H51">
-        <v>1956.475491849858</v>
+        <v>1969.263027934544</v>
       </c>
       <c r="I51">
-        <v>1201.02820115646</v>
+        <v>1271.2352760423</v>
       </c>
       <c r="J51">
-        <v>-378.2625090573005</v>
+        <v>-394.4241657903911</v>
       </c>
       <c r="K51">
-        <v>-2963.091340492025</v>
+        <v>-3069.834297190717</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>35.98023679364569</v>
+        <v>38.93862085065599</v>
       </c>
       <c r="G52">
-        <v>635.9659220038741</v>
+        <v>587.4422211270463</v>
       </c>
       <c r="H52">
-        <v>2024.587025217316</v>
+        <v>1937.198280690664</v>
       </c>
       <c r="I52">
-        <v>1326.51869429337</v>
+        <v>1404.740388560569</v>
       </c>
       <c r="J52">
-        <v>-448.3337291014303</v>
+        <v>-421.8486472377155</v>
       </c>
       <c r="K52">
-        <v>-3414.993948815548</v>
+        <v>-3322.000994027467</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.57295154590924</v>
+        <v>36.62789707709142</v>
       </c>
       <c r="G53">
-        <v>632.2604854934401</v>
+        <v>619.496355437841</v>
       </c>
       <c r="H53">
-        <v>1897.300413944885</v>
+        <v>1939.757454745706</v>
       </c>
       <c r="I53">
-        <v>1416.087570505512</v>
+        <v>1390.979061729211</v>
       </c>
       <c r="J53">
-        <v>-472.611127803667</v>
+        <v>-458.5159863322899</v>
       </c>
       <c r="K53">
-        <v>-3882.746996975066</v>
+        <v>-3902.6091515402</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.56439974538961</v>
+        <v>35.08321094608397</v>
       </c>
       <c r="G54">
-        <v>656.8912415422625</v>
+        <v>654.5850322796798</v>
       </c>
       <c r="H54">
-        <v>1956.31486448902</v>
+        <v>1936.290493392227</v>
       </c>
       <c r="I54">
-        <v>1529.766693389429</v>
+        <v>1561.114399039508</v>
       </c>
       <c r="J54">
-        <v>-556.1800612270409</v>
+        <v>-507.2560278335767</v>
       </c>
       <c r="K54">
-        <v>-4213.325269482839</v>
+        <v>-4243.07291764934</v>
       </c>
     </row>
   </sheetData>
